--- a/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040"/>
+    <workbookView windowWidth="14840" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -337,6 +337,288 @@
   </si>
   <si>
     <t>20）我走路很慢</t>
+  </si>
+  <si>
+    <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.district}</t>
+  </si>
+  <si>
+    <t>{.county}</t>
+  </si>
+  <si>
+    <t>{.point}</t>
+  </si>
+  <si>
+    <t>{.date}</t>
+  </si>
+  <si>
+    <t>{.a01}</t>
+  </si>
+  <si>
+    <t>{.a011}</t>
+  </si>
+  <si>
+    <t>{.a02}</t>
+  </si>
+  <si>
+    <t>{.a04}</t>
+  </si>
+  <si>
+    <t>{.a05}</t>
+  </si>
+  <si>
+    <t>{.a06}</t>
+  </si>
+  <si>
+    <t>{.a061}</t>
+  </si>
+  <si>
+    <t>{.a08}</t>
+  </si>
+  <si>
+    <t>{.a09}</t>
+  </si>
+  <si>
+    <t>{.b01}</t>
+  </si>
+  <si>
+    <t>{.b03}</t>
+  </si>
+  <si>
+    <t>{.b04}</t>
+  </si>
+  <si>
+    <t>{.b041}</t>
+  </si>
+  <si>
+    <t>{.b05}</t>
+  </si>
+  <si>
+    <t>{.b051}</t>
+  </si>
+  <si>
+    <t>{.b06}</t>
+  </si>
+  <si>
+    <t>{.b0611}</t>
+  </si>
+  <si>
+    <t>{.b09a}</t>
+  </si>
+  <si>
+    <t>{.b09a1}</t>
+  </si>
+  <si>
+    <t>{.b12}</t>
+  </si>
+  <si>
+    <t>{.e01}</t>
+  </si>
+  <si>
+    <t>{.e031}</t>
+  </si>
+  <si>
+    <t>{.e032}</t>
+  </si>
+  <si>
+    <t>{.e033}</t>
+  </si>
+  <si>
+    <t>{.e034}</t>
+  </si>
+  <si>
+    <t>{.e035}</t>
+  </si>
+  <si>
+    <t>{.e036}</t>
+  </si>
+  <si>
+    <t>{.e04}</t>
+  </si>
+  <si>
+    <t>{.e05}</t>
+  </si>
+  <si>
+    <t>{.e06}</t>
+  </si>
+  <si>
+    <t>{.e13}</t>
+  </si>
+  <si>
+    <t>{.f01}</t>
+  </si>
+  <si>
+    <t>{.f03}</t>
+  </si>
+  <si>
+    <t>{.f04}</t>
+  </si>
+  <si>
+    <t>{.f051a}</t>
+  </si>
+  <si>
+    <t>{.f07}</t>
+  </si>
+  <si>
+    <t>{.f081}</t>
+  </si>
+  <si>
+    <t>{.d02}</t>
+  </si>
+  <si>
+    <t>{.d021}小时{d02}分钟</t>
+  </si>
+  <si>
+    <t>{.d011}</t>
+  </si>
+  <si>
+    <t>{.d012}</t>
+  </si>
+  <si>
+    <t>{.d013}</t>
+  </si>
+  <si>
+    <t>{.d014}</t>
+  </si>
+  <si>
+    <t>{.d015}</t>
+  </si>
+  <si>
+    <t>{.d016}</t>
+  </si>
+  <si>
+    <t>{.d017}</t>
+  </si>
+  <si>
+    <t>{.d018}</t>
+  </si>
+  <si>
+    <t>{.d019}</t>
+  </si>
+  <si>
+    <t>{.k01}</t>
+  </si>
+  <si>
+    <t>{.k02}分钟</t>
+  </si>
+  <si>
+    <t>{.k03}</t>
+  </si>
+  <si>
+    <t>{.k04}</t>
+  </si>
+  <si>
+    <t>{.k05}</t>
+  </si>
+  <si>
+    <t>{.a07}</t>
+  </si>
+  <si>
+    <t>{.a071}</t>
+  </si>
+  <si>
+    <t>{.l02}</t>
+  </si>
+  <si>
+    <t>{.l021}</t>
+  </si>
+  <si>
+    <t>{.l03}</t>
+  </si>
+  <si>
+    <t>{.l04}</t>
+  </si>
+  <si>
+    <t>{.l05}</t>
+  </si>
+  <si>
+    <t>{.l06}</t>
+  </si>
+  <si>
+    <t>{.l07}</t>
+  </si>
+  <si>
+    <t>{.l08}</t>
+  </si>
+  <si>
+    <t>{.l09}</t>
+  </si>
+  <si>
+    <t>{.g11}</t>
+  </si>
+  <si>
+    <t>{.g01}</t>
+  </si>
+  <si>
+    <t>{.i101}</t>
+  </si>
+  <si>
+    <t>{.i102}</t>
+  </si>
+  <si>
+    <t>{.i103}</t>
+  </si>
+  <si>
+    <t>{.i104}</t>
+  </si>
+  <si>
+    <t>{.i105}</t>
+  </si>
+  <si>
+    <t>{.i106}</t>
+  </si>
+  <si>
+    <t>{.i107}</t>
+  </si>
+  <si>
+    <t>{.i108}</t>
+  </si>
+  <si>
+    <t>{i109}</t>
+  </si>
+  <si>
+    <t>{.i110}</t>
+  </si>
+  <si>
+    <t>{.i111}</t>
+  </si>
+  <si>
+    <t>{.i112}</t>
+  </si>
+  <si>
+    <t>{.i113}</t>
+  </si>
+  <si>
+    <t>{.i114}</t>
+  </si>
+  <si>
+    <t>{.i115}</t>
+  </si>
+  <si>
+    <t>{.i116}</t>
+  </si>
+  <si>
+    <t>{.i117}</t>
+  </si>
+  <si>
+    <t>{.i118}</t>
+  </si>
+  <si>
+    <t>{.i119}</t>
+  </si>
+  <si>
+    <t>{.i120}</t>
+  </si>
+  <si>
+    <t>{.total}</t>
   </si>
 </sst>
 </file>
@@ -346,11 +628,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,27 +653,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,6 +677,13 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,14 +725,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -474,8 +741,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,16 +779,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,28 +808,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -543,13 +818,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,19 +854,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,30 +992,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -616,114 +999,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,21 +1091,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -843,16 +1103,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,16 +1133,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,152 +1166,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,40 +1333,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1419,13 +1688,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ3"/>
+  <dimension ref="A1:CR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="CK9" sqref="CK9"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:CQ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.65" style="2" customWidth="1"/>
@@ -1472,7 +1741,7 @@
     <col min="44" max="44" width="14.4916666666667" style="1" customWidth="1"/>
     <col min="45" max="45" width="17.0666666666667" style="1" customWidth="1"/>
     <col min="46" max="46" width="17.0333333333333" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13.0416666666667" style="1" customWidth="1"/>
+    <col min="47" max="47" width="21.9416666666667" style="1" customWidth="1"/>
     <col min="48" max="48" width="15.4583333333333" style="1" customWidth="1"/>
     <col min="49" max="50" width="17.4" style="1" customWidth="1"/>
     <col min="51" max="51" width="16.0666666666667" style="1" customWidth="1"/>
@@ -1604,32 +1873,32 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
       <c r="AN1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1671,33 +1940,33 @@
       <c r="BR1" s="7"/>
       <c r="BS1" s="7"/>
       <c r="BT1" s="7"/>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="13" t="s">
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="17"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="15"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:95">
       <c r="A2" s="7"/>
@@ -1771,24 +2040,24 @@
       <c r="AC2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="12" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AN2" s="8" t="s">
@@ -1826,83 +2095,83 @@
       <c r="BB2" s="7"/>
       <c r="BC2" s="7"/>
       <c r="BD2" s="7"/>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BF2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BG2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BI2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="12" t="s">
+      <c r="BK2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BL2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="12" t="s">
+      <c r="BM2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BN2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BO2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="12" t="s">
+      <c r="BP2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="12" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="12" t="s">
+      <c r="BR2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="12" t="s">
+      <c r="BS2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="12" t="s">
+      <c r="BT2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BU2" s="12" t="s">
+      <c r="BU2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BV2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="15" t="s">
+      <c r="BW2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16"/>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="18"/>
-      <c r="CQ2" s="12" t="s">
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="16"/>
+      <c r="CQ2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1939,25 +2208,25 @@
       <c r="AD3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AI3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8"/>
@@ -1969,48 +2238,48 @@
       <c r="AV3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AW3" s="10" t="s">
         <v>79</v>
       </c>
       <c r="AX3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AY3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AZ3" s="11" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BA3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BB3" s="11" t="s">
+      <c r="BB3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="BC3" s="11" t="s">
+      <c r="BC3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BD3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="12"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="12"/>
-      <c r="BU3" s="12"/>
-      <c r="BV3" s="12"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
       <c r="BW3" s="10" t="s">
         <v>87</v>
       </c>
@@ -2071,7 +2340,292 @@
       <c r="CP3" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="CQ3" s="12"/>
+      <c r="CQ3" s="8"/>
+    </row>
+    <row r="4" ht="18" spans="1:96">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BW4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="BX4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CC4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="CF4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="CM4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CO4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="CQ4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="CR4" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14840" windowHeight="14040"/>
+    <workbookView windowWidth="27900" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.schoolName}</t>
   </si>
   <si>
     <t>{.province}</t>
@@ -626,11 +629,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -668,27 +671,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -703,10 +698,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,6 +736,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -733,9 +752,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,39 +790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,14 +811,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -818,37 +821,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,145 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,6 +1085,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1117,36 +1150,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1166,154 +1169,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1339,8 +1345,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1690,942 +1708,945 @@
   <sheetPr/>
   <dimension ref="A1:CR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:CQ3"/>
+    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="14.6083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.775" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.53333333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="4" customWidth="1"/>
-    <col min="16" max="16" width="15.0916666666667" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.225" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7083333333333" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.2333333333333" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.1666666666667" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.2333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.0416666666667" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.3166666666667" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.4083333333333" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.65" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.475" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6916666666667" style="1" customWidth="1"/>
-    <col min="30" max="31" width="13.6416666666667" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.7" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.3916666666667" style="1" customWidth="1"/>
-    <col min="34" max="34" width="14.0083333333333" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.2" style="1" customWidth="1"/>
-    <col min="36" max="36" width="17.3833333333333" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19" style="1" customWidth="1"/>
-    <col min="38" max="38" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="40" max="40" width="23.55" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.1166666666667" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.15" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.4916666666667" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="46" max="46" width="17.0333333333333" style="1" customWidth="1"/>
-    <col min="47" max="47" width="21.9416666666667" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.4583333333333" style="1" customWidth="1"/>
-    <col min="49" max="50" width="17.4" style="1" customWidth="1"/>
-    <col min="51" max="51" width="16.0666666666667" style="1" customWidth="1"/>
-    <col min="52" max="53" width="17.4" style="1" customWidth="1"/>
-    <col min="54" max="54" width="16.9083333333333" style="1" customWidth="1"/>
-    <col min="55" max="56" width="17.4" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.2333333333333" style="1" customWidth="1"/>
-    <col min="58" max="58" width="18.3583333333333" style="1" customWidth="1"/>
-    <col min="59" max="61" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="62" max="62" width="20.525" style="1" customWidth="1"/>
-    <col min="63" max="63" width="21.3666666666667" style="1" customWidth="1"/>
-    <col min="64" max="64" width="20.05" style="1" customWidth="1"/>
-    <col min="65" max="65" width="20.7583333333333" style="1" customWidth="1"/>
-    <col min="66" max="66" width="17.3833333333333" style="1" customWidth="1"/>
-    <col min="67" max="67" width="17.75" style="1" customWidth="1"/>
-    <col min="68" max="68" width="18.6" style="1" customWidth="1"/>
-    <col min="69" max="69" width="24.0333333333333" style="1" customWidth="1"/>
-    <col min="70" max="70" width="21.7333333333333" style="1" customWidth="1"/>
-    <col min="71" max="73" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="74" max="74" width="22.3416666666667" style="1" customWidth="1"/>
-    <col min="75" max="75" width="18.4" style="1" customWidth="1"/>
-    <col min="76" max="76" width="13.7583333333333" style="1" customWidth="1"/>
-    <col min="77" max="77" width="15.2" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="79" max="80" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="82" max="82" width="16.7833333333333" style="1" customWidth="1"/>
-    <col min="83" max="84" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="85" max="85" width="15.2" style="1" customWidth="1"/>
-    <col min="86" max="86" width="17.275" style="1" customWidth="1"/>
-    <col min="87" max="87" width="17.6333333333333" style="1" customWidth="1"/>
-    <col min="88" max="89" width="17.4" style="1" customWidth="1"/>
-    <col min="90" max="90" width="13.525" style="1" customWidth="1"/>
-    <col min="91" max="92" width="17.4" style="1" customWidth="1"/>
-    <col min="93" max="93" width="15.2166666666667" style="1" customWidth="1"/>
-    <col min="94" max="94" width="15.8166666666667" style="1" customWidth="1"/>
-    <col min="95" max="95" width="17.4" style="1" customWidth="1"/>
-    <col min="96" max="96" width="14.975" style="1" customWidth="1"/>
-    <col min="97" max="97" width="16.3" style="1" customWidth="1"/>
-    <col min="98" max="100" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="101" max="101" width="12.5583333333333" style="1" customWidth="1"/>
-    <col min="102" max="102" width="14.6083333333333" style="1" customWidth="1"/>
-    <col min="103" max="103" width="11.8333333333333" style="1" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="105" max="113" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="1" customWidth="1"/>
-    <col min="115" max="115" width="8" style="1" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="1" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="121" max="121" width="8" style="1" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="1" customWidth="1"/>
-    <col min="125" max="126" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="1" customWidth="1"/>
-    <col min="129" max="129" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="1" customWidth="1"/>
-    <col min="132" max="132" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="1" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="1" customWidth="1"/>
-    <col min="142" max="142" width="8" style="1" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="1" customWidth="1"/>
-    <col min="154" max="154" width="8" style="1" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="1" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="160" max="160" width="8" style="1" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="1" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="1" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="1" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="1" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="1" customWidth="1"/>
-    <col min="181" max="181" width="8" style="1" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="1" customWidth="1"/>
-    <col min="193" max="193" width="8" style="1" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="1" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="14.6083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.65" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.1" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.53333333333333" style="5" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.0916666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="22.225" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.7083333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.1666666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.0416666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13.3333333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.3166666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.4083333333333" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13.65" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.475" style="2" customWidth="1"/>
+    <col min="29" max="29" width="15.6916666666667" style="2" customWidth="1"/>
+    <col min="30" max="31" width="13.6416666666667" style="2" customWidth="1"/>
+    <col min="32" max="32" width="15.7" style="2" customWidth="1"/>
+    <col min="33" max="33" width="17.3916666666667" style="2" customWidth="1"/>
+    <col min="34" max="34" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.2" style="2" customWidth="1"/>
+    <col min="36" max="36" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="19" style="2" customWidth="1"/>
+    <col min="38" max="38" width="18.8333333333333" style="2" customWidth="1"/>
+    <col min="39" max="39" width="15.6666666666667" style="2" customWidth="1"/>
+    <col min="40" max="40" width="23.55" style="2" customWidth="1"/>
+    <col min="41" max="41" width="18.1166666666667" style="2" customWidth="1"/>
+    <col min="42" max="42" width="17.875" style="2" customWidth="1"/>
+    <col min="43" max="43" width="17.15" style="2" customWidth="1"/>
+    <col min="44" max="44" width="14.4916666666667" style="2" customWidth="1"/>
+    <col min="45" max="45" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="46" max="46" width="17.0333333333333" style="2" customWidth="1"/>
+    <col min="47" max="47" width="21.9416666666667" style="2" customWidth="1"/>
+    <col min="48" max="48" width="15.4583333333333" style="2" customWidth="1"/>
+    <col min="49" max="50" width="17.4" style="2" customWidth="1"/>
+    <col min="51" max="51" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="52" max="53" width="17.4" style="2" customWidth="1"/>
+    <col min="54" max="54" width="16.9083333333333" style="2" customWidth="1"/>
+    <col min="55" max="56" width="17.4" style="2" customWidth="1"/>
+    <col min="57" max="57" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="58" max="58" width="18.3583333333333" style="2" customWidth="1"/>
+    <col min="59" max="61" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="62" max="62" width="20.525" style="2" customWidth="1"/>
+    <col min="63" max="63" width="21.3666666666667" style="2" customWidth="1"/>
+    <col min="64" max="64" width="20.05" style="2" customWidth="1"/>
+    <col min="65" max="65" width="20.7583333333333" style="2" customWidth="1"/>
+    <col min="66" max="66" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="67" max="67" width="17.75" style="2" customWidth="1"/>
+    <col min="68" max="68" width="18.6" style="2" customWidth="1"/>
+    <col min="69" max="69" width="24.0333333333333" style="2" customWidth="1"/>
+    <col min="70" max="70" width="21.7333333333333" style="2" customWidth="1"/>
+    <col min="71" max="73" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="74" max="74" width="22.3416666666667" style="2" customWidth="1"/>
+    <col min="75" max="75" width="18.4" style="2" customWidth="1"/>
+    <col min="76" max="76" width="13.7583333333333" style="2" customWidth="1"/>
+    <col min="77" max="77" width="15.2" style="2" customWidth="1"/>
+    <col min="78" max="78" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="79" max="80" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="81" max="81" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="82" max="82" width="16.7833333333333" style="2" customWidth="1"/>
+    <col min="83" max="84" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="85" max="85" width="15.2" style="2" customWidth="1"/>
+    <col min="86" max="86" width="17.275" style="2" customWidth="1"/>
+    <col min="87" max="87" width="17.6333333333333" style="2" customWidth="1"/>
+    <col min="88" max="89" width="17.4" style="2" customWidth="1"/>
+    <col min="90" max="90" width="13.525" style="2" customWidth="1"/>
+    <col min="91" max="92" width="17.4" style="2" customWidth="1"/>
+    <col min="93" max="93" width="15.2166666666667" style="2" customWidth="1"/>
+    <col min="94" max="94" width="15.8166666666667" style="2" customWidth="1"/>
+    <col min="95" max="95" width="17.4" style="2" customWidth="1"/>
+    <col min="96" max="96" width="14.975" style="2" customWidth="1"/>
+    <col min="97" max="97" width="16.3" style="2" customWidth="1"/>
+    <col min="98" max="100" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="101" max="101" width="12.5583333333333" style="2" customWidth="1"/>
+    <col min="102" max="102" width="14.6083333333333" style="2" customWidth="1"/>
+    <col min="103" max="103" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="104" max="104" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="105" max="113" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="114" max="114" width="18.4" style="2" customWidth="1"/>
+    <col min="115" max="115" width="8" style="2" customWidth="1"/>
+    <col min="116" max="116" width="15.2" style="2" customWidth="1"/>
+    <col min="117" max="117" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="118" max="119" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="120" max="120" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="121" max="121" width="8" style="2" customWidth="1"/>
+    <col min="122" max="123" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="124" max="124" width="15.2" style="2" customWidth="1"/>
+    <col min="125" max="126" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="127" max="128" width="17.4" style="2" customWidth="1"/>
+    <col min="129" max="129" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="130" max="131" width="17.4" style="2" customWidth="1"/>
+    <col min="132" max="132" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="133" max="134" width="17.4" style="2" customWidth="1"/>
+    <col min="135" max="135" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="136" max="136" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="137" max="140" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="141" max="141" width="18.4" style="2" customWidth="1"/>
+    <col min="142" max="142" width="8" style="2" customWidth="1"/>
+    <col min="143" max="143" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="144" max="152" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="153" max="153" width="18.4" style="2" customWidth="1"/>
+    <col min="154" max="154" width="8" style="2" customWidth="1"/>
+    <col min="155" max="155" width="15.2" style="2" customWidth="1"/>
+    <col min="156" max="156" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="157" max="158" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="159" max="159" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="160" max="160" width="8" style="2" customWidth="1"/>
+    <col min="161" max="162" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="163" max="163" width="15.2" style="2" customWidth="1"/>
+    <col min="164" max="165" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="166" max="167" width="17.4" style="2" customWidth="1"/>
+    <col min="168" max="168" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="169" max="170" width="17.4" style="2" customWidth="1"/>
+    <col min="171" max="171" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="172" max="173" width="17.4" style="2" customWidth="1"/>
+    <col min="174" max="174" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="175" max="175" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="176" max="179" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="180" max="180" width="18.4" style="2" customWidth="1"/>
+    <col min="181" max="181" width="8" style="2" customWidth="1"/>
+    <col min="182" max="182" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="183" max="191" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="192" max="192" width="18.4" style="2" customWidth="1"/>
+    <col min="193" max="193" width="8" style="2" customWidth="1"/>
+    <col min="194" max="194" width="15.2" style="2" customWidth="1"/>
+    <col min="195" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:95">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7" t="s">
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7" t="s">
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7" t="s">
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7" t="s">
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7" t="s">
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="11" t="s">
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="15"/>
+      <c r="BX1" s="17"/>
+      <c r="BY1" s="17"/>
+      <c r="BZ1" s="17"/>
+      <c r="CA1" s="17"/>
+      <c r="CB1" s="17"/>
+      <c r="CC1" s="17"/>
+      <c r="CD1" s="17"/>
+      <c r="CE1" s="17"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="20"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:95">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AV2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="8" t="s">
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BI2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BM2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="13" t="s">
+      <c r="BW2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="8" t="s">
+      <c r="BX2" s="19"/>
+      <c r="BY2" s="19"/>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
+      <c r="CB2" s="19"/>
+      <c r="CC2" s="19"/>
+      <c r="CD2" s="19"/>
+      <c r="CE2" s="19"/>
+      <c r="CF2" s="19"/>
+      <c r="CG2" s="19"/>
+      <c r="CH2" s="19"/>
+      <c r="CI2" s="19"/>
+      <c r="CJ2" s="19"/>
+      <c r="CK2" s="19"/>
+      <c r="CL2" s="19"/>
+      <c r="CM2" s="19"/>
+      <c r="CN2" s="19"/>
+      <c r="CO2" s="19"/>
+      <c r="CP2" s="21"/>
+      <c r="CQ2" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" ht="87" customHeight="1" spans="1:95">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="10" t="s">
+      <c r="AF3" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AG3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AH3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="10" t="s">
+      <c r="AI3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="10" t="s">
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AW3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AY3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="BA3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BB3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BC3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BD3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="10" t="s">
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="BX3" s="10" t="s">
+      <c r="BX3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="BY3" s="10" t="s">
+      <c r="BY3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="BZ3" s="10" t="s">
+      <c r="BZ3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="10" t="s">
+      <c r="CA3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="CB3" s="10" t="s">
+      <c r="CB3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="CC3" s="10" t="s">
+      <c r="CC3" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="CD3" s="10" t="s">
+      <c r="CD3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="CE3" s="10" t="s">
+      <c r="CE3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="CF3" s="10" t="s">
+      <c r="CF3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="CG3" s="10" t="s">
+      <c r="CG3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="CH3" s="10" t="s">
+      <c r="CH3" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="CI3" s="10" t="s">
+      <c r="CI3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="CJ3" s="10" t="s">
+      <c r="CJ3" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="CK3" s="10" t="s">
+      <c r="CK3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="CL3" s="10" t="s">
+      <c r="CL3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="CM3" s="10" t="s">
+      <c r="CM3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="CN3" s="10" t="s">
+      <c r="CN3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="CO3" s="10" t="s">
+      <c r="CO3" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="CP3" s="10" t="s">
+      <c r="CP3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="CQ3" s="8"/>
+      <c r="CQ3" s="9"/>
     </row>
-    <row r="4" ht="18" spans="1:96">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:96">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>108</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="O4" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="P4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="R4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="U4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="V4" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="W4" s="12" t="s">
         <v>129</v>
       </c>
+      <c r="X4" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="Y4" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AA4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AB4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AC4" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AD4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AE4" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AF4" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="AG4" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="AH4" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AJ4" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AK4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AL4" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AM4" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AN4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AO4" s="12" t="s">
         <v>147</v>
       </c>
+      <c r="AP4" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="AQ4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AS4" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AT4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AU4" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="AW4" s="4" t="s">
+      <c r="AV4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AX4" s="4" t="s">
+      <c r="AW4" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AY4" s="4" t="s">
+      <c r="AX4" s="12" t="s">
         <v>156</v>
       </c>
+      <c r="AY4" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="AZ4" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="BC4" s="5" t="s">
+      <c r="BB4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BC4" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BD4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BE4" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BF4" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BH4" s="4" t="s">
+      <c r="BG4" s="12" t="s">
         <v>165</v>
       </c>
+      <c r="BH4" s="12" t="s">
+        <v>166</v>
+      </c>
       <c r="BI4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BK4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BL4" s="5" t="s">
+      <c r="BK4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="BM4" s="4" t="s">
+      <c r="BL4" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="BN4" s="9" t="s">
+      <c r="BM4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="BO4" s="4" t="s">
+      <c r="BN4" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="BP4" s="4" t="s">
+      <c r="BO4" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BP4" s="12" t="s">
         <v>174</v>
       </c>
+      <c r="BQ4" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="BR4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BT4" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BU4" s="5" t="s">
+      <c r="BT4" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="BV4" s="4" t="s">
+      <c r="BU4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="BW4" s="9" t="s">
+      <c r="BV4" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="BX4" s="4" t="s">
+      <c r="BW4" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="BY4" s="4" t="s">
+      <c r="BX4" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="BZ4" s="4" t="s">
+      <c r="BY4" s="12" t="s">
         <v>183</v>
       </c>
+      <c r="BZ4" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="CA4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CC4" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="CD4" s="5" t="s">
+      <c r="CC4" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="CE4" s="4" t="s">
+      <c r="CD4" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="CF4" s="9" t="s">
+      <c r="CE4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="CG4" s="4" t="s">
+      <c r="CF4" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="CH4" s="4" t="s">
+      <c r="CG4" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="CI4" s="4" t="s">
+      <c r="CH4" s="12" t="s">
         <v>192</v>
       </c>
+      <c r="CI4" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="CJ4" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CL4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="CM4" s="5" t="s">
+      <c r="CL4" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="CN4" s="4" t="s">
+      <c r="CM4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="CO4" s="9" t="s">
+      <c r="CN4" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="CP4" s="4" t="s">
+      <c r="CO4" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="CQ4" s="4" t="s">
+      <c r="CP4" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="CR4" s="4"/>
+      <c r="CQ4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="CR4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
@@ -629,11 +629,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -675,6 +675,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -682,9 +690,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -695,29 +702,6 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,30 +729,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -792,7 +785,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,13 +811,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -827,67 +827,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +965,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,97 +995,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,6 +1085,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1100,21 +1115,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1124,13 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,17 +1154,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,142 +1169,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,21 +1314,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1336,27 +1327,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,19 +1355,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1706,10 +1688,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CR4"/>
+  <dimension ref="A1:CQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1862,7 +1844,7 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -1962,34 +1944,34 @@
         <v>15</v>
       </c>
       <c r="BV1" s="8"/>
-      <c r="BW1" s="16" t="s">
+      <c r="BW1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="20"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="14"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="14"/>
+      <c r="CK1" s="14"/>
+      <c r="CL1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CN1" s="14"/>
+      <c r="CO1" s="14"/>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="15"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:95">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -2010,52 +1992,52 @@
       <c r="M2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="AD2" s="8" t="s">
@@ -2066,40 +2048,40 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="AV2" s="8" t="s">
@@ -2113,90 +2095,90 @@
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BG2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BH2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BK2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BL2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BM2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BN2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BO2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BP2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="9" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="9" t="s">
+      <c r="BR2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BS2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="9" t="s">
+      <c r="BT2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BU2" s="9" t="s">
+      <c r="BU2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BV2" s="9" t="s">
+      <c r="BV2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="18" t="s">
+      <c r="BW2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="19"/>
-      <c r="BY2" s="19"/>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="19"/>
-      <c r="CD2" s="19"/>
-      <c r="CE2" s="19"/>
-      <c r="CF2" s="19"/>
-      <c r="CG2" s="19"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="19"/>
-      <c r="CJ2" s="19"/>
-      <c r="CK2" s="19"/>
-      <c r="CL2" s="19"/>
-      <c r="CM2" s="19"/>
-      <c r="CN2" s="19"/>
-      <c r="CO2" s="19"/>
-      <c r="CP2" s="21"/>
-      <c r="CQ2" s="9" t="s">
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="14"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="14"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="14"/>
+      <c r="CH2" s="14"/>
+      <c r="CI2" s="14"/>
+      <c r="CJ2" s="14"/>
+      <c r="CK2" s="14"/>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" ht="87" customHeight="1" spans="1:95">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -2207,167 +2189,167 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="15" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AG3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AH3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AI3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="15" t="s">
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="15" t="s">
+      <c r="AW3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="15" t="s">
+      <c r="AX3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AY3" s="15" t="s">
+      <c r="AY3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="BA3" s="15" t="s">
+      <c r="BA3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="BB3" s="15" t="s">
+      <c r="BB3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="BC3" s="15" t="s">
+      <c r="BC3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BD3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9"/>
-      <c r="BR3" s="9"/>
-      <c r="BS3" s="9"/>
-      <c r="BT3" s="9"/>
-      <c r="BU3" s="9"/>
-      <c r="BV3" s="9"/>
-      <c r="BW3" s="15" t="s">
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
+      <c r="BW3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BX3" s="15" t="s">
+      <c r="BX3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="BY3" s="15" t="s">
+      <c r="BY3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="BZ3" s="15" t="s">
+      <c r="BZ3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="15" t="s">
+      <c r="CA3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CB3" s="15" t="s">
+      <c r="CB3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CC3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CD3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CE3" s="15" t="s">
+      <c r="CE3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CF3" s="15" t="s">
+      <c r="CF3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CG3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CH3" s="15" t="s">
+      <c r="CH3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CI3" s="15" t="s">
+      <c r="CI3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CJ3" s="15" t="s">
+      <c r="CJ3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CK3" s="15" t="s">
+      <c r="CK3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CL3" s="15" t="s">
+      <c r="CL3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CM3" s="15" t="s">
+      <c r="CM3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="CN3" s="15" t="s">
+      <c r="CN3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="CO3" s="15" t="s">
+      <c r="CO3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="CP3" s="15" t="s">
+      <c r="CP3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="CQ3" s="9"/>
+      <c r="CQ3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:96">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:95">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2376,7 +2358,7 @@
       <c r="E4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2385,25 +2367,25 @@
       <c r="H4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="1" t="s">
         <v>121</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -2412,25 +2394,25 @@
       <c r="Q4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Y4" s="1" t="s">
@@ -2439,25 +2421,25 @@
       <c r="Z4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AB4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AD4" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="AH4" s="1" t="s">
@@ -2466,25 +2448,25 @@
       <c r="AI4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AJ4" s="12" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AM4" s="14" t="s">
+      <c r="AM4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="AQ4" s="1" t="s">
@@ -2493,25 +2475,25 @@
       <c r="AR4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AS4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AT4" s="13" t="s">
+      <c r="AT4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AU4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AV4" s="14" t="s">
+      <c r="AV4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AW4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AX4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="AY4" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AZ4" s="1" t="s">
@@ -2520,25 +2502,25 @@
       <c r="BA4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BB4" s="12" t="s">
+      <c r="BB4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BC4" s="13" t="s">
+      <c r="BC4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BD4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BE4" s="14" t="s">
+      <c r="BE4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="BF4" s="12" t="s">
+      <c r="BF4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BG4" s="12" t="s">
+      <c r="BG4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BH4" s="12" t="s">
+      <c r="BH4" s="1" t="s">
         <v>166</v>
       </c>
       <c r="BI4" s="1" t="s">
@@ -2547,25 +2529,25 @@
       <c r="BJ4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BK4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BL4" s="13" t="s">
+      <c r="BL4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="BM4" s="12" t="s">
+      <c r="BM4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BN4" s="14" t="s">
+      <c r="BN4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="BO4" s="12" t="s">
+      <c r="BO4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BP4" s="12" t="s">
+      <c r="BP4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BQ4" s="12" t="s">
+      <c r="BQ4" s="1" t="s">
         <v>175</v>
       </c>
       <c r="BR4" s="1" t="s">
@@ -2574,25 +2556,25 @@
       <c r="BS4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BT4" s="12" t="s">
+      <c r="BT4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BU4" s="13" t="s">
+      <c r="BU4" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="BV4" s="12" t="s">
+      <c r="BV4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BW4" s="14" t="s">
+      <c r="BW4" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="BX4" s="12" t="s">
+      <c r="BX4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BY4" s="12" t="s">
+      <c r="BY4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BZ4" s="12" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="CA4" s="1" t="s">
@@ -2601,25 +2583,25 @@
       <c r="CB4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CC4" s="12" t="s">
+      <c r="CC4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CD4" s="13" t="s">
+      <c r="CD4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="CE4" s="12" t="s">
+      <c r="CE4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CF4" s="14" t="s">
+      <c r="CF4" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="CG4" s="12" t="s">
+      <c r="CG4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CH4" s="12" t="s">
+      <c r="CH4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CI4" s="12" t="s">
+      <c r="CI4" s="1" t="s">
         <v>193</v>
       </c>
       <c r="CJ4" s="1" t="s">
@@ -2628,25 +2610,24 @@
       <c r="CK4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CL4" s="12" t="s">
+      <c r="CL4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CM4" s="13" t="s">
+      <c r="CM4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="CN4" s="12" t="s">
+      <c r="CN4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CO4" s="14" t="s">
+      <c r="CO4" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="CP4" s="12" t="s">
+      <c r="CP4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CQ4" s="12" t="s">
+      <c r="CQ4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CR4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
@@ -628,12 +628,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -662,13 +661,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -690,13 +682,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -705,10 +690,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,19 +721,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,24 +751,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,7 +767,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,181 +826,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,15 +1069,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1096,21 +1086,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,6 +1114,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1153,214 +1163,185 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,26 +1672,26 @@
   <dimension ref="A1:CQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.65" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.1" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.53333333333333" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.15" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.53333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.15" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="2" customWidth="1"/>
     <col min="16" max="16" width="15.0916666666667" style="2" customWidth="1"/>
     <col min="17" max="17" width="22.225" style="2" customWidth="1"/>
     <col min="18" max="18" width="22.7083333333333" style="2" customWidth="1"/>
@@ -1838,518 +1819,518 @@
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:95">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8" t="s">
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8" t="s">
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8" t="s">
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8" t="s">
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8" t="s">
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="13" t="s">
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="BX1" s="14"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="14"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="14"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="14"/>
-      <c r="CE1" s="14"/>
-      <c r="CF1" s="14"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="14"/>
-      <c r="CI1" s="14"/>
-      <c r="CJ1" s="14"/>
-      <c r="CK1" s="14"/>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="15"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="9"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:95">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8" t="s">
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BI2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BL2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BM2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BN2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="8" t="s">
+      <c r="BO2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="13" t="s">
+      <c r="BW2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="14"/>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="14"/>
-      <c r="CB2" s="14"/>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="14"/>
-      <c r="CE2" s="14"/>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="14"/>
-      <c r="CH2" s="14"/>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="14"/>
-      <c r="CK2" s="14"/>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="15"/>
-      <c r="CQ2" s="8" t="s">
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+      <c r="CO2" s="8"/>
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" ht="87" customHeight="1" spans="1:95">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="12" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="12" t="s">
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AW3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AX3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AY3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="AZ3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BA3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BB3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BC3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BD3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="12" t="s">
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="BX3" s="12" t="s">
+      <c r="BX3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="BY3" s="12" t="s">
+      <c r="BY3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="BZ3" s="12" t="s">
+      <c r="BZ3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="CA3" s="12" t="s">
+      <c r="CA3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CB3" s="12" t="s">
+      <c r="CB3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="CC3" s="12" t="s">
+      <c r="CC3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="CD3" s="12" t="s">
+      <c r="CD3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="CE3" s="12" t="s">
+      <c r="CE3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="CF3" s="12" t="s">
+      <c r="CF3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="CG3" s="12" t="s">
+      <c r="CG3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="CH3" s="12" t="s">
+      <c r="CH3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="CI3" s="12" t="s">
+      <c r="CI3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="CJ3" s="12" t="s">
+      <c r="CJ3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="CK3" s="12" t="s">
+      <c r="CK3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="CL3" s="12" t="s">
+      <c r="CL3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="CM3" s="12" t="s">
+      <c r="CM3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="CN3" s="12" t="s">
+      <c r="CN3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="CO3" s="12" t="s">
+      <c r="CO3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="CP3" s="12" t="s">
+      <c r="CP3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="CQ3" s="8"/>
+      <c r="CQ3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="18" spans="1:95">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2358,7 +2339,7 @@
       <c r="E4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2397,13 +2378,13 @@
       <c r="R4" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="1" t="s">
         <v>125</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="5" t="s">
         <v>127</v>
       </c>
       <c r="V4" s="1" t="s">
@@ -2424,13 +2405,13 @@
       <c r="AA4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="1" t="s">
         <v>134</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="5" t="s">
         <v>136</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -2451,13 +2432,13 @@
       <c r="AJ4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="AL4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AM4" s="11" t="s">
+      <c r="AM4" s="5" t="s">
         <v>145</v>
       </c>
       <c r="AN4" s="1" t="s">
@@ -2478,13 +2459,13 @@
       <c r="AS4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AT4" s="9" t="s">
+      <c r="AT4" s="1" t="s">
         <v>152</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AV4" s="11" t="s">
+      <c r="AV4" s="5" t="s">
         <v>154</v>
       </c>
       <c r="AW4" s="1" t="s">
@@ -2505,13 +2486,13 @@
       <c r="BB4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BC4" s="9" t="s">
+      <c r="BC4" s="1" t="s">
         <v>161</v>
       </c>
       <c r="BD4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BE4" s="11" t="s">
+      <c r="BE4" s="5" t="s">
         <v>163</v>
       </c>
       <c r="BF4" s="1" t="s">
@@ -2532,13 +2513,13 @@
       <c r="BK4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BL4" s="9" t="s">
+      <c r="BL4" s="1" t="s">
         <v>170</v>
       </c>
       <c r="BM4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BN4" s="11" t="s">
+      <c r="BN4" s="5" t="s">
         <v>172</v>
       </c>
       <c r="BO4" s="1" t="s">
@@ -2559,13 +2540,13 @@
       <c r="BT4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BU4" s="9" t="s">
+      <c r="BU4" s="1" t="s">
         <v>179</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BW4" s="11" t="s">
+      <c r="BW4" s="5" t="s">
         <v>181</v>
       </c>
       <c r="BX4" s="1" t="s">
@@ -2586,13 +2567,13 @@
       <c r="CC4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CD4" s="9" t="s">
+      <c r="CD4" s="1" t="s">
         <v>188</v>
       </c>
       <c r="CE4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CF4" s="11" t="s">
+      <c r="CF4" s="5" t="s">
         <v>190</v>
       </c>
       <c r="CG4" s="1" t="s">
@@ -2613,13 +2594,13 @@
       <c r="CL4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CM4" s="9" t="s">
+      <c r="CM4" s="1" t="s">
         <v>197</v>
       </c>
       <c r="CN4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CO4" s="11" t="s">
+      <c r="CO4" s="5" t="s">
         <v>199</v>
       </c>
       <c r="CP4" s="1" t="s">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
@@ -477,7 +477,7 @@
     <t>{.d02}</t>
   </si>
   <si>
-    <t>{.d021}小时{d02}分钟</t>
+    <t>{.d021}小时{.d022}分钟</t>
   </si>
   <si>
     <t>{.d011}</t>
@@ -585,7 +585,7 @@
     <t>{.i108}</t>
   </si>
   <si>
-    <t>{i109}</t>
+    <t>{.i109}</t>
   </si>
   <si>
     <t>{.i110}</t>
@@ -629,10 +629,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -661,6 +661,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -668,7 +675,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -676,7 +683,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,13 +720,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -713,9 +728,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,69 +798,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,13 +810,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -826,12 +826,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -844,79 +958,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,79 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,8 +1069,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,9 +1116,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,203 +1163,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1671,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportMiddleSchoolTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>ID</t>
   </si>
@@ -177,7 +177,7 @@
     <t>F01你是否使用耳机（至少连续30分钟）</t>
   </si>
   <si>
-    <t>F02过去7天，你平均每天使用耳机时间</t>
+    <t>F02过去7天，你平均每天使用耳机时间（分钟）</t>
   </si>
   <si>
     <t>F03过去7天，你连续使用耳机超过60分钟的次数</t>
@@ -252,6 +252,12 @@
     <t>C026因为身体缺陷或长相而被取笑</t>
   </si>
   <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
     <t>E021经常上网，即使不上网，脑中也一直浮现与网络有关的事情</t>
   </si>
   <si>
@@ -477,7 +483,10 @@
     <t>{.d02}</t>
   </si>
   <si>
-    <t>{.d021}小时{.d022}分钟</t>
+    <t>{.d021}</t>
+  </si>
+  <si>
+    <t>{.d022}</t>
   </si>
   <si>
     <t>{.d011}</t>
@@ -510,7 +519,7 @@
     <t>{.k01}</t>
   </si>
   <si>
-    <t>{.k02}分钟</t>
+    <t>{.k02}</t>
   </si>
   <si>
     <t>{.k03}</t>
@@ -631,8 +640,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -668,28 +677,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -704,9 +691,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,9 +713,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,7 +746,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,23 +754,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +776,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,21 +799,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,13 +829,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,169 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,17 +1052,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1068,9 +1066,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,8 +1078,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,10 +1116,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1136,6 +1134,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,152 +1177,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,7 +1350,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,10 +1684,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ4"/>
+  <dimension ref="A1:CR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BG4" sqref="BG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1722,103 +1737,103 @@
     <col min="44" max="44" width="14.4916666666667" style="2" customWidth="1"/>
     <col min="45" max="45" width="17.0666666666667" style="2" customWidth="1"/>
     <col min="46" max="46" width="17.0333333333333" style="2" customWidth="1"/>
-    <col min="47" max="47" width="21.9416666666667" style="2" customWidth="1"/>
-    <col min="48" max="48" width="15.4583333333333" style="2" customWidth="1"/>
-    <col min="49" max="50" width="17.4" style="2" customWidth="1"/>
-    <col min="51" max="51" width="16.0666666666667" style="2" customWidth="1"/>
-    <col min="52" max="53" width="17.4" style="2" customWidth="1"/>
-    <col min="54" max="54" width="16.9083333333333" style="2" customWidth="1"/>
-    <col min="55" max="56" width="17.4" style="2" customWidth="1"/>
-    <col min="57" max="57" width="18.2333333333333" style="2" customWidth="1"/>
-    <col min="58" max="58" width="18.3583333333333" style="2" customWidth="1"/>
-    <col min="59" max="61" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="62" max="62" width="20.525" style="2" customWidth="1"/>
-    <col min="63" max="63" width="21.3666666666667" style="2" customWidth="1"/>
-    <col min="64" max="64" width="20.05" style="2" customWidth="1"/>
-    <col min="65" max="65" width="20.7583333333333" style="2" customWidth="1"/>
-    <col min="66" max="66" width="17.3833333333333" style="2" customWidth="1"/>
-    <col min="67" max="67" width="17.75" style="2" customWidth="1"/>
-    <col min="68" max="68" width="18.6" style="2" customWidth="1"/>
-    <col min="69" max="69" width="24.0333333333333" style="2" customWidth="1"/>
-    <col min="70" max="70" width="21.7333333333333" style="2" customWidth="1"/>
-    <col min="71" max="73" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="74" max="74" width="22.3416666666667" style="2" customWidth="1"/>
-    <col min="75" max="75" width="18.4" style="2" customWidth="1"/>
-    <col min="76" max="76" width="13.7583333333333" style="2" customWidth="1"/>
-    <col min="77" max="77" width="15.2" style="2" customWidth="1"/>
-    <col min="78" max="78" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="79" max="80" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="82" max="82" width="16.7833333333333" style="2" customWidth="1"/>
-    <col min="83" max="84" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="85" max="85" width="15.2" style="2" customWidth="1"/>
-    <col min="86" max="86" width="17.275" style="2" customWidth="1"/>
-    <col min="87" max="87" width="17.6333333333333" style="2" customWidth="1"/>
-    <col min="88" max="89" width="17.4" style="2" customWidth="1"/>
-    <col min="90" max="90" width="13.525" style="2" customWidth="1"/>
-    <col min="91" max="92" width="17.4" style="2" customWidth="1"/>
-    <col min="93" max="93" width="15.2166666666667" style="2" customWidth="1"/>
-    <col min="94" max="94" width="15.8166666666667" style="2" customWidth="1"/>
-    <col min="95" max="95" width="17.4" style="2" customWidth="1"/>
-    <col min="96" max="96" width="14.975" style="2" customWidth="1"/>
-    <col min="97" max="97" width="16.3" style="2" customWidth="1"/>
-    <col min="98" max="100" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="101" max="101" width="12.5583333333333" style="2" customWidth="1"/>
-    <col min="102" max="102" width="14.6083333333333" style="2" customWidth="1"/>
-    <col min="103" max="103" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="105" max="113" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="2" customWidth="1"/>
-    <col min="115" max="115" width="8" style="2" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="2" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="121" max="121" width="8" style="2" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="2" customWidth="1"/>
-    <col min="125" max="126" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="2" customWidth="1"/>
-    <col min="129" max="129" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="2" customWidth="1"/>
-    <col min="132" max="132" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="2" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="2" customWidth="1"/>
-    <col min="142" max="142" width="8" style="2" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="2" customWidth="1"/>
-    <col min="154" max="154" width="8" style="2" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="2" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="2" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="2" customWidth="1"/>
-    <col min="160" max="160" width="8" style="2" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="2" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="2" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="2" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="2" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="2" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="2" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="2" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="2" customWidth="1"/>
-    <col min="181" max="181" width="8" style="2" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="2" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="2" customWidth="1"/>
-    <col min="193" max="193" width="8" style="2" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="2" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="2"/>
+    <col min="47" max="48" width="21.9416666666667" style="2" customWidth="1"/>
+    <col min="49" max="49" width="15.4583333333333" style="2" customWidth="1"/>
+    <col min="50" max="51" width="17.4" style="2" customWidth="1"/>
+    <col min="52" max="52" width="16.0666666666667" style="2" customWidth="1"/>
+    <col min="53" max="54" width="17.4" style="2" customWidth="1"/>
+    <col min="55" max="55" width="16.9083333333333" style="2" customWidth="1"/>
+    <col min="56" max="57" width="17.4" style="2" customWidth="1"/>
+    <col min="58" max="58" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="59" max="59" width="18.3583333333333" style="2" customWidth="1"/>
+    <col min="60" max="62" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="63" max="63" width="20.525" style="2" customWidth="1"/>
+    <col min="64" max="64" width="21.3666666666667" style="2" customWidth="1"/>
+    <col min="65" max="65" width="20.05" style="2" customWidth="1"/>
+    <col min="66" max="66" width="20.7583333333333" style="2" customWidth="1"/>
+    <col min="67" max="67" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="68" max="68" width="17.75" style="2" customWidth="1"/>
+    <col min="69" max="69" width="18.6" style="2" customWidth="1"/>
+    <col min="70" max="70" width="24.0333333333333" style="2" customWidth="1"/>
+    <col min="71" max="71" width="21.7333333333333" style="2" customWidth="1"/>
+    <col min="72" max="74" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="75" max="75" width="22.3416666666667" style="2" customWidth="1"/>
+    <col min="76" max="76" width="18.4" style="2" customWidth="1"/>
+    <col min="77" max="77" width="13.7583333333333" style="2" customWidth="1"/>
+    <col min="78" max="78" width="15.2" style="2" customWidth="1"/>
+    <col min="79" max="79" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="80" max="81" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="82" max="82" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="83" max="83" width="16.7833333333333" style="2" customWidth="1"/>
+    <col min="84" max="85" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="86" max="86" width="15.2" style="2" customWidth="1"/>
+    <col min="87" max="87" width="17.275" style="2" customWidth="1"/>
+    <col min="88" max="88" width="17.6333333333333" style="2" customWidth="1"/>
+    <col min="89" max="90" width="17.4" style="2" customWidth="1"/>
+    <col min="91" max="91" width="13.525" style="2" customWidth="1"/>
+    <col min="92" max="93" width="17.4" style="2" customWidth="1"/>
+    <col min="94" max="94" width="15.2166666666667" style="2" customWidth="1"/>
+    <col min="95" max="95" width="15.8166666666667" style="2" customWidth="1"/>
+    <col min="96" max="96" width="17.4" style="2" customWidth="1"/>
+    <col min="97" max="97" width="14.975" style="2" customWidth="1"/>
+    <col min="98" max="98" width="16.3" style="2" customWidth="1"/>
+    <col min="99" max="101" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="102" max="102" width="12.5583333333333" style="2" customWidth="1"/>
+    <col min="103" max="103" width="14.6083333333333" style="2" customWidth="1"/>
+    <col min="104" max="104" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="105" max="105" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="106" max="114" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="115" max="115" width="18.4" style="2" customWidth="1"/>
+    <col min="116" max="116" width="8" style="2" customWidth="1"/>
+    <col min="117" max="117" width="15.2" style="2" customWidth="1"/>
+    <col min="118" max="118" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="119" max="120" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="121" max="121" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="122" max="122" width="8" style="2" customWidth="1"/>
+    <col min="123" max="124" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="125" max="125" width="15.2" style="2" customWidth="1"/>
+    <col min="126" max="127" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="128" max="129" width="17.4" style="2" customWidth="1"/>
+    <col min="130" max="130" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="131" max="132" width="17.4" style="2" customWidth="1"/>
+    <col min="133" max="133" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="134" max="135" width="17.4" style="2" customWidth="1"/>
+    <col min="136" max="136" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="137" max="137" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="138" max="141" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="142" max="142" width="18.4" style="2" customWidth="1"/>
+    <col min="143" max="143" width="8" style="2" customWidth="1"/>
+    <col min="144" max="144" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="145" max="153" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="154" max="154" width="18.4" style="2" customWidth="1"/>
+    <col min="155" max="155" width="8" style="2" customWidth="1"/>
+    <col min="156" max="156" width="15.2" style="2" customWidth="1"/>
+    <col min="157" max="157" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="158" max="159" width="18.5333333333333" style="2" customWidth="1"/>
+    <col min="160" max="160" width="17.5333333333333" style="2" customWidth="1"/>
+    <col min="161" max="161" width="8" style="2" customWidth="1"/>
+    <col min="162" max="163" width="17.0666666666667" style="2" customWidth="1"/>
+    <col min="164" max="164" width="15.2" style="2" customWidth="1"/>
+    <col min="165" max="166" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="167" max="168" width="17.4" style="2" customWidth="1"/>
+    <col min="169" max="169" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="170" max="171" width="17.4" style="2" customWidth="1"/>
+    <col min="172" max="172" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="173" max="174" width="17.4" style="2" customWidth="1"/>
+    <col min="175" max="175" width="7.13333333333333" style="2" customWidth="1"/>
+    <col min="176" max="176" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="177" max="180" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="181" max="181" width="18.4" style="2" customWidth="1"/>
+    <col min="182" max="182" width="8" style="2" customWidth="1"/>
+    <col min="183" max="183" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="184" max="192" width="15.5333333333333" style="2" customWidth="1"/>
+    <col min="193" max="193" width="18.4" style="2" customWidth="1"/>
+    <col min="194" max="194" width="8" style="2" customWidth="1"/>
+    <col min="195" max="195" width="15.2" style="2" customWidth="1"/>
+    <col min="196" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="1:95">
+    <row r="1" ht="47" customHeight="1" spans="1:96">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1901,17 +1916,17 @@
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
       <c r="BH1" s="4"/>
       <c r="BI1" s="4"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
@@ -1921,35 +1936,36 @@
       <c r="BR1" s="4"/>
       <c r="BS1" s="4"/>
       <c r="BT1" s="4"/>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="8"/>
-      <c r="CJ1" s="8"/>
-      <c r="CK1" s="8"/>
-      <c r="CL1" s="8"/>
-      <c r="CM1" s="8"/>
-      <c r="CN1" s="8"/>
-      <c r="CO1" s="8"/>
-      <c r="CP1" s="8"/>
-      <c r="CQ1" s="9"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="11"/>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="1:95">
+    <row r="2" ht="39" customHeight="1" spans="1:96">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2062,13 +2078,13 @@
       <c r="AT2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="4"/>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
@@ -2076,87 +2092,88 @@
       <c r="BB2" s="4"/>
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BI2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BM2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BO2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BP2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BS2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="4" t="s">
+      <c r="BT2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="4" t="s">
+      <c r="BU2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BU2" s="4" t="s">
+      <c r="BV2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BW2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BX2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="4" t="s">
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="87" customHeight="1" spans="1:95">
+    <row r="3" ht="87" customHeight="1" spans="1:96">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2215,35 +2232,39 @@
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
+      <c r="AU3" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="AV3" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BB3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BD3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE3" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="BF3" s="4"/>
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
@@ -2261,353 +2282,357 @@
       <c r="BT3" s="4"/>
       <c r="BU3" s="4"/>
       <c r="BV3" s="4"/>
-      <c r="BW3" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="BW3" s="4"/>
       <c r="BX3" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BY3" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BZ3" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CA3" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CB3" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CC3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CD3" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CE3" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CF3" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CG3" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CH3" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="CI3" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="CJ3" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CK3" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CL3" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CM3" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CN3" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CO3" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CP3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="CQ3" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18" spans="1:95">
+    <row r="4" s="1" customFormat="1" ht="18" spans="1:96">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW4" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="AV4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="AX4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="BF4" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="BE4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="BG4" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN4" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO4" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="BN4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO4" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="BP4" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BW4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BX4" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="BW4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="BY4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG4" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="CF4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG4" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="CH4" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO4" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP4" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="CO4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CP4" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="CQ4" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2616,14 +2641,15 @@
     <mergeCell ref="R1:AB1"/>
     <mergeCell ref="AC1:AM1"/>
     <mergeCell ref="AN1:AS1"/>
-    <mergeCell ref="AT1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="BJ1:BT1"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BW1:CQ1"/>
+    <mergeCell ref="AT1:BE1"/>
+    <mergeCell ref="BF1:BJ1"/>
+    <mergeCell ref="BK1:BU1"/>
+    <mergeCell ref="BV1:BW1"/>
+    <mergeCell ref="BX1:CR1"/>
     <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AV2:BD2"/>
-    <mergeCell ref="BW2:CP2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:BE2"/>
+    <mergeCell ref="BX2:CQ2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -2664,8 +2690,6 @@
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AS2:AS3"/>
     <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BF2:BF3"/>
     <mergeCell ref="BG2:BG3"/>
     <mergeCell ref="BH2:BH3"/>
@@ -2683,7 +2707,8 @@
     <mergeCell ref="BT2:BT3"/>
     <mergeCell ref="BU2:BU3"/>
     <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="CR2:CR3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
